--- a/Prueba Desarrollador Python.xlsx
+++ b/Prueba Desarrollador Python.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/23d8436059019a31/Learning/Little Projects/PrimeStone/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{26A2426E-ED04-43EF-B1C7-949A96A4672E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{D501D4E5-E9E6-4CC0-83DE-2F1C8DA7B7D7}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{26A2426E-ED04-43EF-B1C7-949A96A4672E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{0387FAC9-752E-4AA8-92B3-2BA2A63058D5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{7A2E74FE-508C-4187-83F1-A28FAAFC3075}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba de Logica" sheetId="1" r:id="rId1"/>
     <sheet name="Prueba Tecnica" sheetId="2" r:id="rId2"/>
+    <sheet name="Punto1" sheetId="3" r:id="rId3"/>
+    <sheet name="Punto2" sheetId="4" r:id="rId4"/>
+    <sheet name="Punto3" sheetId="5" r:id="rId5"/>
+    <sheet name="Punto4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>C</t>
   </si>
@@ -133,13 +137,28 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Punto 1:</t>
+  </si>
+  <si>
+    <t>Punto 4:</t>
+  </si>
+  <si>
+    <t>Punto 2:</t>
+  </si>
+  <si>
+    <t>Link repo:</t>
+  </si>
+  <si>
+    <t>https://github.com/Leoh1/PrimeStonePrueba</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,13 +166,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -226,10 +259,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -251,8 +285,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -266,6 +305,471 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>516846</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE6DF5B-48E5-41FF-897F-65B0B0D4B4BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="182880"/>
+          <a:ext cx="6064206" cy="2392680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480513</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5543C748-997E-4783-ACB6-22E7C6A56779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="2796540"/>
+          <a:ext cx="5227773" cy="1204064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229307</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0785B7AB-6320-4B22-A432-D5C3512A124F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="4206240"/>
+          <a:ext cx="8154107" cy="883997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>663251</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC446BDE-173F-40C8-A378-371013225600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="182880"/>
+          <a:ext cx="6210611" cy="3246119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167792</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{152559F4-0FB3-4248-AEB4-7F3E2E80C29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="3657600"/>
+          <a:ext cx="1752752" cy="1013548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121084D2-F13D-41C9-8E8D-763ADB584B3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="4754880"/>
+          <a:ext cx="10058400" cy="821810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>779207</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0635848-B5DB-496D-B55F-EF44FE51C871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="182880"/>
+          <a:ext cx="6326567" cy="5714999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>724237</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E2488A-E0D9-482D-81EB-624D519B9D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="6217920"/>
+          <a:ext cx="3894157" cy="1089754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526238</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>53820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF6822B-5BCF-416B-B5FF-20CA15C1CFCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="7498080"/>
+          <a:ext cx="5281118" cy="5540220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,10 +1252,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB57821C-94A5-4E82-9231-815432996CBB}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B12" sqref="B12:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:E12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B12:E12" r:id="rId1" display="https://github.com/Leoh1/PrimeStonePrueba" xr:uid="{D804238D-AE58-4715-930A-2BDC0A616087}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D07112-CD55-410A-AFD9-34D4C4835116}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0390465-C8CA-43E3-928A-9685A038CD11}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0DC276-93FA-4633-91B4-E1B85263F523}">
+  <dimension ref="A2:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,261 +1425,200 @@
     <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="10">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="12"/>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
+      <c r="G12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="9">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="10">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="11">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-      <c r="D19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
-      <c r="D21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="12"/>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD2A6A3-A1A4-4583-8FAE-3B9B4D06DFAB}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>